--- a/biology/Zoologie/Fila_Brasileiro/Fila_Brasileiro.xlsx
+++ b/biology/Zoologie/Fila_Brasileiro/Fila_Brasileiro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[1]
-Le Fila brasileiro est un chien de type molossoïde originaire du Brésil[2]. Chien de « Fila », ou « filhar », désigne un chien qui attrape sa proie et ne la lâche pas. Traditionnellement, cette race de chien est employée pour la garde.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Le Fila brasileiro est un chien de type molossoïde originaire du Brésil. Chien de « Fila », ou « filhar », désigne un chien qui attrape sa proie et ne la lâche pas. Traditionnellement, cette race de chien est employée pour la garde.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce chien certes imposant, garde tout de même de bonnes proportions.
-Il a une robe de couleur uniforme dont beaucoup de couleurs sont reconnues. En revanche, le blanc, le gris souris, le noir et feu et le bleu ne sont pas reconnues. Il est souvent bringé avec une raie foncée ou claire et des tâches blanches sur les pattes, la poitrine ou sur la pointe de la queue. Ces caractéristiques sont tolérées à condition de ne pas dépasser le quart de la robe[3]. Dans le cas contraire, le chien ne pourrait être reconnu comme un Fila pure.
-Il possède une tête massive et un museau puissant avec une truffe assez large émanché d'un coup fort pourvu d'un fanon. Le Fila a de grandes oreilles en V tombantes et des yeux de taille moyenne en amande. Ce chien présente une poitrine large particulièrement descendue. Dans sa globalité, son corps est assez long comme ses membres. Mais contrairement aux lévriers, sa longueur ne réduit pas sa force et sa musculature. Pour finir, la queue dépasse la pointe du jarret[4].
+Il a une robe de couleur uniforme dont beaucoup de couleurs sont reconnues. En revanche, le blanc, le gris souris, le noir et feu et le bleu ne sont pas reconnues. Il est souvent bringé avec une raie foncée ou claire et des tâches blanches sur les pattes, la poitrine ou sur la pointe de la queue. Ces caractéristiques sont tolérées à condition de ne pas dépasser le quart de la robe. Dans le cas contraire, le chien ne pourrait être reconnu comme un Fila pure.
+Il possède une tête massive et un museau puissant avec une truffe assez large émanché d'un coup fort pourvu d'un fanon. Le Fila a de grandes oreilles en V tombantes et des yeux de taille moyenne en amande. Ce chien présente une poitrine large particulièrement descendue. Dans sa globalité, son corps est assez long comme ses membres. Mais contrairement aux lévriers, sa longueur ne réduit pas sa force et sa musculature. Pour finir, la queue dépasse la pointe du jarret.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs théories tentent d'expliquer la présence du Fila Brasileiro au Brésil. Toutes les recherches effectuées n’ont aucune base zootechnique en raison de l’absence de documentation concrète. Toutefois, grâce aux recherches effectuées dans les plus grandes bibliothèques historiques du « Nord-est » et du « Sud-est » du Brésil, nous pensons que l'actuel chien Fila Brasileiro est entré au Brésil par l’État de Pernambouc. Il y aurait été amené par les flamand-hollandais de la Compagnie des Indes Occidentales et des ramasseurs en Angleterre. Ces derniers ont dominé le Nord-Est brésilien des années 1630 à 1654, date à laquelle ils furent expulsés par les nationaux brésiliens. Le chien de Fila est défini en ancien portugais comme étant un chien de grande taille, agressif et vulgaire. En d’autres termes, il s’agit là des caractéristiques principales du chien molosse. Il n'y a pas de documentation suffisante et convaincante qui prouve une importation de chiens ancêtres du Fila par les portugais, anglais, français ou africains, peuples ayant participé activement à la colonisation du Brésil.
 Nous retrouvons vers le XVIIe siècle, dans le centre du Brésil, la mention d’un chien de Fila dans deux registres, "Voyage du naturaliste et polyglotte anglais capitaine Richard F. Barton" (Par exemple, dans le Rio Sabara, à Santa Luzia, Minas Gerais, dans la vallée du rio São Francisco : « Nega », une chienne Mastiff, ressemblait à un jaguar, et se montrait très agressive lorsqu’elle se retrouvait attachée et aboyait furieusement comme si on l’avait enfermée dans une cage. Elle inspirait de la terreur à ceux qui la voyaient pour la première fois et se rendait très utile. Ainsi, pratiquement tous les hommes voyageaient avec des chiens féroces.) ainsi que celui d'un des plus fameux naturalistes, Maximilian, prince de Wied-Neuwied. Celui-ci, qui voyageait à travers le Brésil vers le début du XIXe siècle, juste après que le roi portugais Jean VI ait ouvert les ports du Brésil, permettant ainsi la libre entrée des étrangers, relate et montre deux gravures : la première représente des chiens de Fila appelés également Cabeçudos, Onceiros ou Boiadeiros encerclant un bœuf et autour des vachers à cheval étant habillés de cuir, comme dans le Nord-est. Dans la seconde gravure, un jaguar sur un arbre, harcelé par des chiens de Fila. Tous les chiens ont les oreilles coupées. Maximilian relata le fait au sud de Bahia, à la frontière de Minas Gerais. Le chien de Fila a été localisé, pénétrant le Brésil par l’état de Pernambuco, en suivant le fleuve Francisco, il arriva à l’État de Minas Gerais. Grâce à la présence de colonisateurs descendants d’Européens, qui ont apprécié le Fila et lui trouvèrent une utilité appréciable, lui donnèrent une alimentation laitière, alors disponible, qui permit la survie du chien. Naturellement, un cycle s’est formé qui favorisa la survie du Fila et impliquant les relations à la forêt, aux jaguars, à l’Homme, au bétail et pour finir, au chien de Fila.
@@ -578,7 +594,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chien de Fila a commencé à être utilisé au Brésil où il était destiné à la poursuite de soldats déserteurs et d'esclaves.
 Amenés par les Hollandais de la compagnie des indes occidentales, où dans un document portugais de 1631, on fait état de chiens de « Fila » qui sont des "engelssen Doggen" ou dogue de forte race (en France), il serait issue d'un croisement de Mastiff avec des Bulldogs. À la fin des guerres, on a ensuite abandonné l'utilisation de Filas pour les reconvertir en chiens de ferme (fazenda), ce dernier était destiné à la garde, à la conduite de bétail et à la surveillance de la ferme la journée. De nuit, le Fila était lâché afin de surveiller la ferme et de contenir les esclaves. Lorsqu'un esclave s'échappait, on utilisait les Filas pour le rattraper sans le tuer car l'esclave était considéré comme précieux. On peut identifier plusieurs types de chien Fila. La race pure, dit "véritable Fila" est un chien typiquement molossoïde, considéré comme chien de bouvier "boiadeiro". Un autre type de Fila est issu de croisement de chiens de chasse afin de lui donner les qualités requises pour performer au mieux dans ce domaine. Le plus souvent ces Filas sont croisés avec des perdigueiros, afin d'alléger leur morphologie.
@@ -610,7 +628,9 @@
           <t>Son expansion</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1946, le premier standard de race du Fila Brasileiro est élaboré par Paulo Santos Cruz, Erviw Valdemar Rathsan et João Ebner. En 1951, la première publication officielle du premier standard de race du Fila Brasileiro est faite dans la revue commémorative du Kennel Clube Paulista (KCP).
 En 1968, la race Fila Brasileiro est reconnue par la Fédération cynologique internationale (FCI) sous la direction du président du Brasil Kennel Clube (BKC) de l’époque et qui fut président de la FCI, Antonio Barone Forzano.
